--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,65 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a149c0897170507f/Documentos/GitHub/VelocidadeInternet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8B7E81778366F20F6235547658668EBFAEDABEA0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EEBF17D7-9B74-450A-A6A7-CCFB7C2F0C1F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="2400" windowWidth="9300" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Velocidade</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,34 +420,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidade</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,65 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a149c0897170507f/Documentos/GitHub/VelocidadeInternet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8B7E81778366F20F6235547658668EBFAEDABEA0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EEBF17D7-9B74-450A-A6A7-CCFB7C2F0C1F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="2400" windowWidth="9300" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Velocidade</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,34 +420,1237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14:39</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14:52</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>07/04/2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20:04</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20:24</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20:44</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>21:04</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22:25</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22:46</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23:26</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23:46</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>00:06</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>00:27</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>00:47</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01:07</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>01:27</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>01:48</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>02:08</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>02:28</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>02:48</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>03:08</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>03:29</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>03:49</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>04:09</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>04:29</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>04:50</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>05:10</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>05:50</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>07:11</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>07:31</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>07:52</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>08:12</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>08:32</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>09:53</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,68 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9678636B-BB62-4235-B7FB-E01E7BB4147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Velocidade</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,67 +420,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidade</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Upload</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ping Google</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mensagem</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ping AWS_Brasil</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mensagem.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ping Youtube</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Mensagem.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Ping Facebook</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mensagem.3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ping Instagram</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Mensagem.4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>28/08/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>46</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>31</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>175</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>28/08/2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>173</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Resposta recebida</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,37 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6673FD-C65F-4ED2-9AEA-0DC65C5234DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Velocidade</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Ping Google</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Ping AWS_Brasil</t>
+  </si>
+  <si>
+    <t>Ping Youtube</t>
+  </si>
+  <si>
+    <t>Ping Facebook</t>
+  </si>
+  <si>
+    <t>Ping Instagram</t>
+  </si>
+  <si>
+    <t>28/08/2021</t>
+  </si>
+  <si>
+    <t>16:17</t>
+  </si>
+  <si>
+    <t>Resposta recebida</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>16:27</t>
+  </si>
+  <si>
+    <t>Mensagem AWS</t>
+  </si>
+  <si>
+    <t>Mensagem Youtube</t>
+  </si>
+  <si>
+    <t>Mensagem Facebook</t>
+  </si>
+  <si>
+    <t>Mensagem Instagram</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +117,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +441,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidade</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ping Google</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mensagem</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ping AWS_Brasil</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Mensagem.1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ping Youtube</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Mensagem.2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Ping Facebook</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Mensagem.3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Ping Instagram</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Mensagem.4</t>
-        </is>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>28/08/2021</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>16:17</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>73</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>80</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>43</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>46</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
         <v>31</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
         <v>175</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
+      <c r="N2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>28/08/2021</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>73</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>49</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
         <v>48</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
         <v>43</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
         <v>31</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3">
         <v>173</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Resposta recebida</t>
-        </is>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>186</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>174</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,65 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a149c0897170507f/Documentos/GitHub/VelocidadeInternet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8B7E81778366F20F6235547658668EBFAEDABEA0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EEBF17D7-9B74-450A-A6A7-CCFB7C2F0C1F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="2400" windowWidth="9300" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Velocidade</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,34 +420,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11:24</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,66 @@
         <v>208</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -533,161 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11:18</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11:20</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11:23</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>11:24</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>11:38</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>11:41</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -503,41 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>12:12</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>12:17</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>192</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
